--- a/WebContent/Files/Template.xlsx
+++ b/WebContent/Files/Template.xlsx
@@ -7,30 +7,21 @@
     <workbookView xWindow="0" yWindow="2445" windowWidth="14700" windowHeight="6405"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="FileMau" sheetId="1" r:id="rId1"/>
+    <sheet name="KhuVuc-DoiTuong" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N19"/>
+  <oleSize ref="A1:K19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>Họ đệm</t>
-  </si>
-  <si>
-    <t>Tên</t>
-  </si>
-  <si>
-    <t>Ngày sinh</t>
-  </si>
-  <si>
     <t>Nơi sinh</t>
   </si>
   <si>
@@ -49,9 +40,6 @@
     <t>Địa chỉ</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>KV3</t>
   </si>
   <si>
@@ -91,14 +79,66 @@
     <t>Huế</t>
   </si>
   <si>
-    <t>quoclee48@gmail.com</t>
+    <t>Nguyễn Văn</t>
+  </si>
+  <si>
+    <t>Vinh</t>
+  </si>
+  <si>
+    <t>Quảng Bình</t>
+  </si>
+  <si>
+    <t>Ba Đồn</t>
+  </si>
+  <si>
+    <t>Hương Thủy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn </t>
+  </si>
+  <si>
+    <t>Đạt</t>
+  </si>
+  <si>
+    <t>Hương Long</t>
+  </si>
+  <si>
+    <t>Họ đệm (*)</t>
+  </si>
+  <si>
+    <t>Tên (*)</t>
+  </si>
+  <si>
+    <t>Ngày sinh (*)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(*): </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thông tin bắt buộc</t>
+    </r>
+  </si>
+  <si>
+    <t>Các thông tin về Khu vực và Đối tượng phải nhập theo</t>
+  </si>
+  <si>
+    <t>mẫu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +158,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,8 +197,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -453,24 +503,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -478,31 +528,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -510,31 +560,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="D2" s="3">
+        <v>32606</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -542,39 +589,85 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3">
-        <v>34797</v>
+        <v>33336</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4">
-        <v>1234567890</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>23</v>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3">
+        <v>34798</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B9:D9"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I3:I4" r:id="rId2" display="test@gmail.com"/>
+    <hyperlink ref="E9" location="'KhuVuc-DoiTuong'!A1" display="mẫu"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -583,7 +676,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,39 +687,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/WebContent/Files/Template.xlsx
+++ b/WebContent/Files/Template.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14700" windowHeight="6405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9915" windowHeight="4875"/>
   </bookViews>
   <sheets>
     <sheet name="FileMau" sheetId="1" r:id="rId1"/>
     <sheet name="KhuVuc-DoiTuong" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:K19"/>
+  <calcPr calcId="162913"/>
+  <oleSize ref="A1:G14"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>STT</t>
   </si>
@@ -133,11 +133,20 @@
   <si>
     <t>mẫu</t>
   </si>
+  <si>
+    <t>Giới tính (*)</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,10 +206,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -211,6 +220,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -259,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,7 +306,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,11 +515,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -515,15 +525,16 @@
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -537,25 +548,28 @@
         <v>30</v>
       </c>
       <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -568,23 +582,30 @@
       <c r="D2" s="3">
         <v>32606</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="str">
+        <f>"0"&amp;"978938234"</f>
+        <v>0978938234</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -597,23 +618,30 @@
       <c r="D3" s="3">
         <v>33336</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I4" si="0">"0"&amp;"978938234"</f>
+        <v>0978938234</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -626,34 +654,41 @@
       <c r="D4" s="3">
         <v>34798</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>0978938234</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -662,8 +697,8 @@
     <mergeCell ref="B9:D9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3:I4" r:id="rId2" display="test@gmail.com"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J3:J4" r:id="rId2" display="test@gmail.com"/>
     <hyperlink ref="E9" location="'KhuVuc-DoiTuong'!A1" display="mẫu"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -675,9 +710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
